--- a/data/processing/plots.xlsx
+++ b/data/processing/plots.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zech011\win-repos\Brazil-informality-analysis\data\processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2ACAA1-A585-4D62-977B-3FC43086ACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D2BC3E-263A-4CD6-A4D8-E7D5F947CFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="absoluto full" sheetId="4" r:id="rId1"/>
-    <sheet name="absoluto informal" sheetId="1" r:id="rId2"/>
-    <sheet name="variacao full" sheetId="2" r:id="rId3"/>
-    <sheet name="grid" sheetId="5" r:id="rId4"/>
-    <sheet name="Tabelle6" sheetId="7" r:id="rId5"/>
-    <sheet name="variacao informal" sheetId="3" r:id="rId6"/>
+    <sheet name="absoluto binary (selected)" sheetId="8" r:id="rId2"/>
+    <sheet name="absoluto informal" sheetId="1" r:id="rId3"/>
+    <sheet name="variacao full" sheetId="2" r:id="rId4"/>
+    <sheet name="grid" sheetId="5" r:id="rId5"/>
+    <sheet name="Tabelle6" sheetId="7" r:id="rId6"/>
+    <sheet name="variacao informal" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="37">
   <si>
     <t>month</t>
   </si>
@@ -62,52 +63,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Empregado</t>
-  </si>
-  <si>
-    <t>Empregado no setor privado, exclusive trabalhador doméstico</t>
-  </si>
-  <si>
-    <t>Empregado no setor privado, exclusive trabalhador doméstico - com carteira de trabalho assinada</t>
-  </si>
-  <si>
     <t>Empregado no setor privado, exclusive trabalhador doméstico - sem carteira de trabalho assinada</t>
-  </si>
-  <si>
-    <t>Trabalhador doméstico</t>
-  </si>
-  <si>
-    <t>Trabalhador doméstico - com carteira de trabalho assinada</t>
   </si>
   <si>
     <t>Trabalhador doméstico - sem carteira de trabalho assinada</t>
   </si>
   <si>
-    <t>Empregado no setor público</t>
-  </si>
-  <si>
-    <t>Empregado no setor público, exclusive militar e funcionário público estatutário - com carteira de trabalho assinada</t>
-  </si>
-  <si>
-    <t>Empregado no setor público, exclusive militar e funcionário público estatutário - sem carteira de trabalho assinada</t>
-  </si>
-  <si>
-    <t>Empregado no setor público - militar e funcionário público estatutário</t>
-  </si>
-  <si>
-    <t>Empregador</t>
-  </si>
-  <si>
-    <t>Empregador com CNPJ</t>
-  </si>
-  <si>
     <t>Empregador sem CNPJ</t>
-  </si>
-  <si>
-    <t>Conta própria</t>
-  </si>
-  <si>
-    <t>Conta própria com CNPJ</t>
   </si>
   <si>
     <t>Conta própria sem CNPJ</t>
@@ -195,9 +157,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]mmm\ yy" x16r2:formatCode16="[$-en-UK]mmm\ yy"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -240,12 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4045,75 +4004,83 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.90625" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>43891</v>
       </c>
       <c r="B2">
@@ -4175,7 +4142,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>43922</v>
       </c>
       <c r="B3">
@@ -4237,7 +4204,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>43952</v>
       </c>
       <c r="B4">
@@ -4299,7 +4266,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>43983</v>
       </c>
       <c r="B5">
@@ -4361,7 +4328,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>44013</v>
       </c>
       <c r="B6">
@@ -4423,7 +4390,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>44044</v>
       </c>
       <c r="B7">
@@ -4485,7 +4452,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>44075</v>
       </c>
       <c r="B8">
@@ -4547,7 +4514,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>44105</v>
       </c>
       <c r="B9">
@@ -4609,7 +4576,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>44136</v>
       </c>
       <c r="B10">
@@ -4671,7 +4638,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>44166</v>
       </c>
       <c r="B11">
@@ -4733,7 +4700,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>44197</v>
       </c>
       <c r="B12">
@@ -4795,7 +4762,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>44228</v>
       </c>
       <c r="B13">
@@ -4857,7 +4824,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>44256</v>
       </c>
       <c r="B14">
@@ -4919,7 +4886,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>44287</v>
       </c>
       <c r="B15">
@@ -4981,7 +4948,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>44317</v>
       </c>
       <c r="B16">
@@ -5043,7 +5010,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>44348</v>
       </c>
       <c r="B17">
@@ -5105,7 +5072,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>44378</v>
       </c>
       <c r="B18">
@@ -5167,7 +5134,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>44409</v>
       </c>
       <c r="B19">
@@ -5230,10 +5197,1367 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EE8F2D-C89C-4678-92D3-A419B61C68F3}">
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B2">
+        <v>92223</v>
+      </c>
+      <c r="C2">
+        <v>61742</v>
+      </c>
+      <c r="D2">
+        <v>44119</v>
+      </c>
+      <c r="E2">
+        <v>33096</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11023</v>
+      </c>
+      <c r="G2">
+        <v>5971</v>
+      </c>
+      <c r="H2">
+        <v>1640</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4331</v>
+      </c>
+      <c r="J2">
+        <v>11652</v>
+      </c>
+      <c r="K2">
+        <v>1204</v>
+      </c>
+      <c r="L2">
+        <v>2342</v>
+      </c>
+      <c r="M2">
+        <v>8106</v>
+      </c>
+      <c r="N2">
+        <v>4385</v>
+      </c>
+      <c r="O2">
+        <v>3584</v>
+      </c>
+      <c r="P2" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q2">
+        <v>24159</v>
+      </c>
+      <c r="R2">
+        <v>5444</v>
+      </c>
+      <c r="S2" s="1">
+        <v>18714</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1938</v>
+      </c>
+      <c r="U2">
+        <f>F2+I2+P2+S2+T2</f>
+        <v>36806</v>
+      </c>
+      <c r="V2">
+        <f>E2+H2+J2+O2+R2</f>
+        <v>55416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B3">
+        <v>89241</v>
+      </c>
+      <c r="C3">
+        <v>59762</v>
+      </c>
+      <c r="D3">
+        <v>42333</v>
+      </c>
+      <c r="E3">
+        <v>32207</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10126</v>
+      </c>
+      <c r="G3">
+        <v>5524</v>
+      </c>
+      <c r="H3">
+        <v>1573</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3951</v>
+      </c>
+      <c r="J3">
+        <v>11904</v>
+      </c>
+      <c r="K3">
+        <v>1201</v>
+      </c>
+      <c r="L3">
+        <v>2456</v>
+      </c>
+      <c r="M3">
+        <v>8248</v>
+      </c>
+      <c r="N3">
+        <v>4201</v>
+      </c>
+      <c r="O3">
+        <v>3445</v>
+      </c>
+      <c r="P3" s="1">
+        <v>755</v>
+      </c>
+      <c r="Q3">
+        <v>23379</v>
+      </c>
+      <c r="R3">
+        <v>5520</v>
+      </c>
+      <c r="S3" s="1">
+        <v>17859</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1900</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U19" si="0">F3+I3+P3+S3+T3</f>
+        <v>34591</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V19" si="1">E3+H3+J3+O3+R3</f>
+        <v>54649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B4">
+        <v>85936</v>
+      </c>
+      <c r="C4">
+        <v>57608</v>
+      </c>
+      <c r="D4">
+        <v>40321</v>
+      </c>
+      <c r="E4">
+        <v>31103</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9218</v>
+      </c>
+      <c r="G4">
+        <v>5033</v>
+      </c>
+      <c r="H4">
+        <v>1463</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3569</v>
+      </c>
+      <c r="J4">
+        <v>12255</v>
+      </c>
+      <c r="K4">
+        <v>1206</v>
+      </c>
+      <c r="L4">
+        <v>2488</v>
+      </c>
+      <c r="M4">
+        <v>8560</v>
+      </c>
+      <c r="N4">
+        <v>4034</v>
+      </c>
+      <c r="O4">
+        <v>3325</v>
+      </c>
+      <c r="P4" s="1">
+        <v>709</v>
+      </c>
+      <c r="Q4">
+        <v>22415</v>
+      </c>
+      <c r="R4">
+        <v>5493</v>
+      </c>
+      <c r="S4" s="1">
+        <v>16922</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1879</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>32297</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>53639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B5">
+        <v>83347</v>
+      </c>
+      <c r="C5">
+        <v>55867</v>
+      </c>
+      <c r="D5">
+        <v>38793</v>
+      </c>
+      <c r="E5">
+        <v>30154</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8639</v>
+      </c>
+      <c r="G5">
+        <v>4714</v>
+      </c>
+      <c r="H5">
+        <v>1411</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3303</v>
+      </c>
+      <c r="J5">
+        <v>12360</v>
+      </c>
+      <c r="K5">
+        <v>1251</v>
+      </c>
+      <c r="L5">
+        <v>2463</v>
+      </c>
+      <c r="M5">
+        <v>8646</v>
+      </c>
+      <c r="N5">
+        <v>3955</v>
+      </c>
+      <c r="O5">
+        <v>3290</v>
+      </c>
+      <c r="P5" s="1">
+        <v>665</v>
+      </c>
+      <c r="Q5">
+        <v>21664</v>
+      </c>
+      <c r="R5">
+        <v>5364</v>
+      </c>
+      <c r="S5" s="1">
+        <v>16300</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1861</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>30768</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>52579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B6">
+        <v>82027</v>
+      </c>
+      <c r="C6">
+        <v>54789</v>
+      </c>
+      <c r="D6">
+        <v>38076</v>
+      </c>
+      <c r="E6">
+        <v>29385</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8691</v>
+      </c>
+      <c r="G6">
+        <v>4593</v>
+      </c>
+      <c r="H6">
+        <v>1372</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3222</v>
+      </c>
+      <c r="J6">
+        <v>12119</v>
+      </c>
+      <c r="K6">
+        <v>1207</v>
+      </c>
+      <c r="L6">
+        <v>2373</v>
+      </c>
+      <c r="M6">
+        <v>8539</v>
+      </c>
+      <c r="N6">
+        <v>3938</v>
+      </c>
+      <c r="O6">
+        <v>3266</v>
+      </c>
+      <c r="P6" s="1">
+        <v>672</v>
+      </c>
+      <c r="Q6">
+        <v>21406</v>
+      </c>
+      <c r="R6">
+        <v>5192</v>
+      </c>
+      <c r="S6" s="1">
+        <v>16214</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1895</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>30694</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>51334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B7">
+        <v>81666</v>
+      </c>
+      <c r="C7">
+        <v>54293</v>
+      </c>
+      <c r="D7">
+        <v>37822</v>
+      </c>
+      <c r="E7">
+        <v>29067</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8755</v>
+      </c>
+      <c r="G7">
+        <v>4559</v>
+      </c>
+      <c r="H7">
+        <v>1334</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3225</v>
+      </c>
+      <c r="J7">
+        <v>11912</v>
+      </c>
+      <c r="K7">
+        <v>1196</v>
+      </c>
+      <c r="L7">
+        <v>2295</v>
+      </c>
+      <c r="M7">
+        <v>8420</v>
+      </c>
+      <c r="N7">
+        <v>3905</v>
+      </c>
+      <c r="O7">
+        <v>3225</v>
+      </c>
+      <c r="P7" s="1">
+        <v>679</v>
+      </c>
+      <c r="Q7">
+        <v>21521</v>
+      </c>
+      <c r="R7">
+        <v>5084</v>
+      </c>
+      <c r="S7" s="1">
+        <v>16437</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1947</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>31043</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>50622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B8">
+        <v>82464</v>
+      </c>
+      <c r="C8">
+        <v>54819</v>
+      </c>
+      <c r="D8">
+        <v>38378</v>
+      </c>
+      <c r="E8">
+        <v>29366</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9013</v>
+      </c>
+      <c r="G8">
+        <v>4612</v>
+      </c>
+      <c r="H8">
+        <v>1310</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3302</v>
+      </c>
+      <c r="J8">
+        <v>11829</v>
+      </c>
+      <c r="K8">
+        <v>1148</v>
+      </c>
+      <c r="L8">
+        <v>2274</v>
+      </c>
+      <c r="M8">
+        <v>8407</v>
+      </c>
+      <c r="N8">
+        <v>3859</v>
+      </c>
+      <c r="O8">
+        <v>3176</v>
+      </c>
+      <c r="P8" s="1">
+        <v>683</v>
+      </c>
+      <c r="Q8">
+        <v>21783</v>
+      </c>
+      <c r="R8">
+        <v>5146</v>
+      </c>
+      <c r="S8" s="1">
+        <v>16638</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2002</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>31638</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>50827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B9">
+        <v>84301</v>
+      </c>
+      <c r="C9">
+        <v>55938</v>
+      </c>
+      <c r="D9">
+        <v>39239</v>
+      </c>
+      <c r="E9">
+        <v>29769</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9470</v>
+      </c>
+      <c r="G9">
+        <v>4707</v>
+      </c>
+      <c r="H9">
+        <v>1285</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3422</v>
+      </c>
+      <c r="J9">
+        <v>11992</v>
+      </c>
+      <c r="K9">
+        <v>1151</v>
+      </c>
+      <c r="L9">
+        <v>2343</v>
+      </c>
+      <c r="M9">
+        <v>8498</v>
+      </c>
+      <c r="N9">
+        <v>3885</v>
+      </c>
+      <c r="O9">
+        <v>3217</v>
+      </c>
+      <c r="P9" s="1">
+        <v>668</v>
+      </c>
+      <c r="Q9">
+        <v>22456</v>
+      </c>
+      <c r="R9">
+        <v>5324</v>
+      </c>
+      <c r="S9" s="1">
+        <v>17132</v>
+      </c>
+      <c r="T9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>32714</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>51587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B10">
+        <v>85578</v>
+      </c>
+      <c r="C10">
+        <v>56674</v>
+      </c>
+      <c r="D10">
+        <v>39697</v>
+      </c>
+      <c r="E10">
+        <v>29963</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9735</v>
+      </c>
+      <c r="G10">
+        <v>4791</v>
+      </c>
+      <c r="H10">
+        <v>1263</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3528</v>
+      </c>
+      <c r="J10">
+        <v>12186</v>
+      </c>
+      <c r="K10">
+        <v>1160</v>
+      </c>
+      <c r="L10">
+        <v>2367</v>
+      </c>
+      <c r="M10">
+        <v>8659</v>
+      </c>
+      <c r="N10">
+        <v>3921</v>
+      </c>
+      <c r="O10">
+        <v>3259</v>
+      </c>
+      <c r="P10" s="1">
+        <v>661</v>
+      </c>
+      <c r="Q10">
+        <v>22937</v>
+      </c>
+      <c r="R10">
+        <v>5419</v>
+      </c>
+      <c r="S10" s="1">
+        <v>17517</v>
+      </c>
+      <c r="T10" s="1">
+        <v>2047</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>33488</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>52090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B11">
+        <v>86179</v>
+      </c>
+      <c r="C11">
+        <v>56934</v>
+      </c>
+      <c r="D11">
+        <v>39870</v>
+      </c>
+      <c r="E11">
+        <v>29885</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9985</v>
+      </c>
+      <c r="G11">
+        <v>4902</v>
+      </c>
+      <c r="H11">
+        <v>1281</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3621</v>
+      </c>
+      <c r="J11">
+        <v>12162</v>
+      </c>
+      <c r="K11">
+        <v>1194</v>
+      </c>
+      <c r="L11">
+        <v>2310</v>
+      </c>
+      <c r="M11">
+        <v>8658</v>
+      </c>
+      <c r="N11">
+        <v>3922</v>
+      </c>
+      <c r="O11">
+        <v>3266</v>
+      </c>
+      <c r="P11" s="1">
+        <v>656</v>
+      </c>
+      <c r="Q11">
+        <v>23272</v>
+      </c>
+      <c r="R11">
+        <v>5556</v>
+      </c>
+      <c r="S11" s="1">
+        <v>17716</v>
+      </c>
+      <c r="T11" s="1">
+        <v>2051</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>34029</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>52150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B12">
+        <v>86025</v>
+      </c>
+      <c r="C12">
+        <v>56560</v>
+      </c>
+      <c r="D12">
+        <v>39601</v>
+      </c>
+      <c r="E12">
+        <v>29792</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9809</v>
+      </c>
+      <c r="G12">
+        <v>4919</v>
+      </c>
+      <c r="H12">
+        <v>1320</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3599</v>
+      </c>
+      <c r="J12">
+        <v>12040</v>
+      </c>
+      <c r="K12">
+        <v>1140</v>
+      </c>
+      <c r="L12">
+        <v>2114</v>
+      </c>
+      <c r="M12">
+        <v>8785</v>
+      </c>
+      <c r="N12">
+        <v>3878</v>
+      </c>
+      <c r="O12">
+        <v>3210</v>
+      </c>
+      <c r="P12" s="1">
+        <v>667</v>
+      </c>
+      <c r="Q12">
+        <v>23503</v>
+      </c>
+      <c r="R12">
+        <v>5544</v>
+      </c>
+      <c r="S12" s="1">
+        <v>17959</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2084</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>34118</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>51906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B13">
+        <v>85899</v>
+      </c>
+      <c r="C13">
+        <v>56355</v>
+      </c>
+      <c r="D13">
+        <v>39493</v>
+      </c>
+      <c r="E13">
+        <v>29697</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9796</v>
+      </c>
+      <c r="G13">
+        <v>4908</v>
+      </c>
+      <c r="H13">
+        <v>1310</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3598</v>
+      </c>
+      <c r="J13">
+        <v>11955</v>
+      </c>
+      <c r="K13">
+        <v>1160</v>
+      </c>
+      <c r="L13">
+        <v>1981</v>
+      </c>
+      <c r="M13">
+        <v>8814</v>
+      </c>
+      <c r="N13">
+        <v>3859</v>
+      </c>
+      <c r="O13">
+        <v>3174</v>
+      </c>
+      <c r="P13" s="1">
+        <v>685</v>
+      </c>
+      <c r="Q13">
+        <v>23653</v>
+      </c>
+      <c r="R13">
+        <v>5749</v>
+      </c>
+      <c r="S13" s="1">
+        <v>17904</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2031</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>34014</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>51885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B14">
+        <v>85650</v>
+      </c>
+      <c r="C14">
+        <v>56008</v>
+      </c>
+      <c r="D14">
+        <v>39261</v>
+      </c>
+      <c r="E14">
+        <v>29570</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9691</v>
+      </c>
+      <c r="G14">
+        <v>4936</v>
+      </c>
+      <c r="H14">
+        <v>1345</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3591</v>
+      </c>
+      <c r="J14">
+        <v>11811</v>
+      </c>
+      <c r="K14">
+        <v>1172</v>
+      </c>
+      <c r="L14">
+        <v>1915</v>
+      </c>
+      <c r="M14">
+        <v>8725</v>
+      </c>
+      <c r="N14">
+        <v>3769</v>
+      </c>
+      <c r="O14">
+        <v>3095</v>
+      </c>
+      <c r="P14" s="1">
+        <v>674</v>
+      </c>
+      <c r="Q14">
+        <v>23837</v>
+      </c>
+      <c r="R14">
+        <v>5869</v>
+      </c>
+      <c r="S14" s="1">
+        <v>17968</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2036</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>33960</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>51690</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B15">
+        <v>85940</v>
+      </c>
+      <c r="C15">
+        <v>56133</v>
+      </c>
+      <c r="D15">
+        <v>39357</v>
+      </c>
+      <c r="E15">
+        <v>29605</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9752</v>
+      </c>
+      <c r="G15">
+        <v>4952</v>
+      </c>
+      <c r="H15">
+        <v>1349</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3603</v>
+      </c>
+      <c r="J15">
+        <v>11824</v>
+      </c>
+      <c r="K15">
+        <v>1205</v>
+      </c>
+      <c r="L15">
+        <v>1971</v>
+      </c>
+      <c r="M15">
+        <v>8649</v>
+      </c>
+      <c r="N15">
+        <v>3766</v>
+      </c>
+      <c r="O15">
+        <v>3093</v>
+      </c>
+      <c r="P15" s="1">
+        <v>673</v>
+      </c>
+      <c r="Q15">
+        <v>24040</v>
+      </c>
+      <c r="R15">
+        <v>5847</v>
+      </c>
+      <c r="S15" s="1">
+        <v>18192</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2002</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>34222</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>51718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B16">
+        <v>86708</v>
+      </c>
+      <c r="C16">
+        <v>56584</v>
+      </c>
+      <c r="D16">
+        <v>39603</v>
+      </c>
+      <c r="E16">
+        <v>29798</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9804</v>
+      </c>
+      <c r="G16">
+        <v>5027</v>
+      </c>
+      <c r="H16">
+        <v>1344</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3683</v>
+      </c>
+      <c r="J16">
+        <v>11954</v>
+      </c>
+      <c r="K16">
+        <v>1227</v>
+      </c>
+      <c r="L16">
+        <v>2062</v>
+      </c>
+      <c r="M16">
+        <v>8665</v>
+      </c>
+      <c r="N16">
+        <v>3723</v>
+      </c>
+      <c r="O16">
+        <v>3066</v>
+      </c>
+      <c r="P16" s="1">
+        <v>657</v>
+      </c>
+      <c r="Q16">
+        <v>24373</v>
+      </c>
+      <c r="R16">
+        <v>5832</v>
+      </c>
+      <c r="S16" s="1">
+        <v>18540</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2028</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>34712</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>51994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B17">
+        <v>87791</v>
+      </c>
+      <c r="C17">
+        <v>57141</v>
+      </c>
+      <c r="D17">
+        <v>40212</v>
+      </c>
+      <c r="E17">
+        <v>30189</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10023</v>
+      </c>
+      <c r="G17">
+        <v>5108</v>
+      </c>
+      <c r="H17">
+        <v>1312</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3796</v>
+      </c>
+      <c r="J17">
+        <v>11821</v>
+      </c>
+      <c r="K17">
+        <v>1273</v>
+      </c>
+      <c r="L17">
+        <v>2097</v>
+      </c>
+      <c r="M17">
+        <v>8451</v>
+      </c>
+      <c r="N17">
+        <v>3788</v>
+      </c>
+      <c r="O17">
+        <v>3097</v>
+      </c>
+      <c r="P17" s="1">
+        <v>691</v>
+      </c>
+      <c r="Q17">
+        <v>24839</v>
+      </c>
+      <c r="R17">
+        <v>5754</v>
+      </c>
+      <c r="S17" s="1">
+        <v>19085</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>35618</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="1"/>
+        <v>52173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B18">
+        <v>89042</v>
+      </c>
+      <c r="C18">
+        <v>58092</v>
+      </c>
+      <c r="D18">
+        <v>40970</v>
+      </c>
+      <c r="E18">
+        <v>30631</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10339</v>
+      </c>
+      <c r="G18">
+        <v>5332</v>
+      </c>
+      <c r="H18">
+        <v>1315</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4017</v>
+      </c>
+      <c r="J18">
+        <v>11790</v>
+      </c>
+      <c r="K18">
+        <v>1302</v>
+      </c>
+      <c r="L18">
+        <v>2149</v>
+      </c>
+      <c r="M18">
+        <v>8339</v>
+      </c>
+      <c r="N18">
+        <v>3746</v>
+      </c>
+      <c r="O18">
+        <v>3025</v>
+      </c>
+      <c r="P18" s="1">
+        <v>720</v>
+      </c>
+      <c r="Q18">
+        <v>25172</v>
+      </c>
+      <c r="R18">
+        <v>5985</v>
+      </c>
+      <c r="S18" s="1">
+        <v>19187</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2032</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>36295</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>52746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B19">
+        <v>90188</v>
+      </c>
+      <c r="C19">
+        <v>58943</v>
+      </c>
+      <c r="D19">
+        <v>41830</v>
+      </c>
+      <c r="E19">
+        <v>31039</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10791</v>
+      </c>
+      <c r="G19">
+        <v>5524</v>
+      </c>
+      <c r="H19">
+        <v>1374</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4150</v>
+      </c>
+      <c r="J19">
+        <v>11589</v>
+      </c>
+      <c r="K19">
+        <v>1276</v>
+      </c>
+      <c r="L19">
+        <v>2199</v>
+      </c>
+      <c r="M19">
+        <v>8114</v>
+      </c>
+      <c r="N19">
+        <v>3788</v>
+      </c>
+      <c r="O19">
+        <v>3062</v>
+      </c>
+      <c r="P19" s="1">
+        <v>726</v>
+      </c>
+      <c r="Q19">
+        <v>25409</v>
+      </c>
+      <c r="R19">
+        <v>6025</v>
+      </c>
+      <c r="S19" s="1">
+        <v>19384</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2048</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>37099</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>53089</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -5634,12 +6958,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5852AB-4187-4E61-8510-4418AC081866}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5651,61 +6975,61 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
         <v>2</v>
       </c>
       <c r="O1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="Q1" t="s">
         <v>3</v>
       </c>
       <c r="R1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="T1" t="s">
         <v>4</v>
@@ -6832,12 +8156,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B74178-40AD-48ED-B67E-7F239A6BAF42}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6847,27 +8171,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>43891</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -6880,7 +8204,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>43891</v>
       </c>
       <c r="B3" t="s">
@@ -6897,7 +8221,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>43891</v>
       </c>
       <c r="B4" t="s">
@@ -6914,7 +8238,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>43891</v>
       </c>
       <c r="B5" t="s">
@@ -6931,11 +8255,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>43922</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>-2.8</v>
@@ -6948,7 +8272,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>43922</v>
       </c>
       <c r="B7" t="s">
@@ -6965,7 +8289,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>43922</v>
       </c>
       <c r="B8" t="s">
@@ -6982,7 +8306,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>43922</v>
       </c>
       <c r="B9" t="s">
@@ -6999,11 +8323,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>43952</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>-6.4</v>
@@ -7016,7 +8340,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>43952</v>
       </c>
       <c r="B11" t="s">
@@ -7033,7 +8357,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>43952</v>
       </c>
       <c r="B12" t="s">
@@ -7050,7 +8374,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>43952</v>
       </c>
       <c r="B13" t="s">
@@ -7067,11 +8391,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>43983</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>-9.1999999999999993</v>
@@ -7084,7 +8408,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>43983</v>
       </c>
       <c r="B15" t="s">
@@ -7101,7 +8425,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>43983</v>
       </c>
       <c r="B16" t="s">
@@ -7118,7 +8442,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>43983</v>
       </c>
       <c r="B17" t="s">
@@ -7135,11 +8459,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>44013</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>-11.3</v>
@@ -7152,7 +8476,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>44013</v>
       </c>
       <c r="B19" t="s">
@@ -7169,7 +8493,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>44013</v>
       </c>
       <c r="B20" t="s">
@@ -7186,7 +8510,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>44013</v>
       </c>
       <c r="B21" t="s">
@@ -7203,11 +8527,11 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>44044</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>-12</v>
@@ -7220,7 +8544,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>44044</v>
       </c>
       <c r="B23" t="s">
@@ -7237,7 +8561,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>44044</v>
       </c>
       <c r="B24" t="s">
@@ -7254,7 +8578,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>44044</v>
       </c>
       <c r="B25" t="s">
@@ -7271,11 +8595,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>44075</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>-11.2</v>
@@ -7288,7 +8612,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>44075</v>
       </c>
       <c r="B27" t="s">
@@ -7305,7 +8629,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>44075</v>
       </c>
       <c r="B28" t="s">
@@ -7322,7 +8646,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>44075</v>
       </c>
       <c r="B29" t="s">
@@ -7339,11 +8663,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>44105</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C30">
         <v>-10.4</v>
@@ -7356,7 +8680,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>44105</v>
       </c>
       <c r="B31" t="s">
@@ -7373,7 +8697,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>44105</v>
       </c>
       <c r="B32" t="s">
@@ -7390,7 +8714,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>44105</v>
       </c>
       <c r="B33" t="s">
@@ -7407,11 +8731,11 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>44136</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>-10.3</v>
@@ -7424,7 +8748,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>44136</v>
       </c>
       <c r="B35" t="s">
@@ -7441,7 +8765,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>44136</v>
       </c>
       <c r="B36" t="s">
@@ -7458,7 +8782,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>44136</v>
       </c>
       <c r="B37" t="s">
@@ -7475,11 +8799,11 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>44166</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>-11.2</v>
@@ -7492,7 +8816,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>44166</v>
       </c>
       <c r="B39" t="s">
@@ -7509,7 +8833,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>44166</v>
       </c>
       <c r="B40" t="s">
@@ -7526,7 +8850,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>44166</v>
       </c>
       <c r="B41" t="s">
@@ -7543,11 +8867,11 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>44197</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>-11.6</v>
@@ -7560,7 +8884,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>44197</v>
       </c>
       <c r="B43" t="s">
@@ -7577,7 +8901,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>44197</v>
       </c>
       <c r="B44" t="s">
@@ -7594,7 +8918,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>44197</v>
       </c>
       <c r="B45" t="s">
@@ -7611,11 +8935,11 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>44228</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C46">
         <v>-11.7</v>
@@ -7628,7 +8952,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>44228</v>
       </c>
       <c r="B47" t="s">
@@ -7645,7 +8969,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>44228</v>
       </c>
       <c r="B48" t="s">
@@ -7662,7 +8986,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>44228</v>
       </c>
       <c r="B49" t="s">
@@ -7679,11 +9003,11 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>44256</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C50">
         <v>-10.7</v>
@@ -7696,7 +9020,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>44256</v>
       </c>
       <c r="B51" t="s">
@@ -7713,7 +9037,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>44256</v>
       </c>
       <c r="B52" t="s">
@@ -7730,7 +9054,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>44256</v>
       </c>
       <c r="B53" t="s">
@@ -7747,11 +9071,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>44287</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C54">
         <v>-8.1</v>
@@ -7764,7 +9088,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>44287</v>
       </c>
       <c r="B55" t="s">
@@ -7781,7 +9105,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>44287</v>
       </c>
       <c r="B56" t="s">
@@ -7798,7 +9122,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>44287</v>
       </c>
       <c r="B57" t="s">
@@ -7815,11 +9139,11 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>44317</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C58">
         <v>-4.2</v>
@@ -7832,7 +9156,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>44317</v>
       </c>
       <c r="B59" t="s">
@@ -7849,7 +9173,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>44317</v>
       </c>
       <c r="B60" t="s">
@@ -7866,7 +9190,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>44317</v>
       </c>
       <c r="B61" t="s">
@@ -7883,11 +9207,11 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="5">
+      <c r="A62" s="3">
         <v>44348</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C62">
         <v>0.1</v>
@@ -7900,7 +9224,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>44348</v>
       </c>
       <c r="B63" t="s">
@@ -7917,7 +9241,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>44348</v>
       </c>
       <c r="B64" t="s">
@@ -7934,7 +9258,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>44348</v>
       </c>
       <c r="B65" t="s">
@@ -7951,11 +9275,11 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="5">
+      <c r="A66" s="3">
         <v>44378</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C66">
         <v>4.2</v>
@@ -7968,7 +9292,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="5">
+      <c r="A67" s="3">
         <v>44378</v>
       </c>
       <c r="B67" t="s">
@@ -7985,7 +9309,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="5">
+      <c r="A68" s="3">
         <v>44378</v>
       </c>
       <c r="B68" t="s">
@@ -8002,7 +9326,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="5">
+      <c r="A69" s="3">
         <v>44378</v>
       </c>
       <c r="B69" t="s">
@@ -8019,11 +9343,11 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="5">
+      <c r="A70" s="3">
         <v>44409</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C70">
         <v>6.8</v>
@@ -8036,7 +9360,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>44409</v>
       </c>
       <c r="B71" t="s">
@@ -8053,7 +9377,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>44409</v>
       </c>
       <c r="B72" t="s">
@@ -8070,7 +9394,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>44409</v>
       </c>
       <c r="B73" t="s">
@@ -8087,14 +9411,14 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="5">
+      <c r="A74" s="3">
         <v>43891</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D74">
         <v>-10.5</v>
@@ -8104,14 +9428,14 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="5">
+      <c r="A75" s="3">
         <v>43922</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>-11.2</v>
@@ -8121,14 +9445,14 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="5">
+      <c r="A76" s="3">
         <v>43952</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D76">
         <v>-13</v>
@@ -8138,14 +9462,14 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="5">
+      <c r="A77" s="3">
         <v>43983</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>-15.5</v>
@@ -8155,14 +9479,14 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="5">
+      <c r="A78" s="3">
         <v>44013</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>-15</v>
@@ -8172,14 +9496,14 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="5">
+      <c r="A79" s="3">
         <v>44044</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <v>-11.2</v>
@@ -8189,14 +9513,14 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="5">
+      <c r="A80" s="3">
         <v>44075</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>-5.9</v>
@@ -8206,14 +9530,14 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="5">
+      <c r="A81" s="3">
         <v>44105</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D81">
         <v>-4.2</v>
@@ -8223,14 +9547,14 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="5">
+      <c r="A82" s="3">
         <v>44136</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D82">
         <v>-0.7</v>
@@ -8240,14 +9564,14 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="5">
+      <c r="A83" s="3">
         <v>44166</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>0.9</v>
@@ -8257,14 +9581,14 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="5">
+      <c r="A84" s="3">
         <v>44197</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D84">
         <v>5.2</v>
@@ -8274,14 +9598,14 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="5">
+      <c r="A85" s="3">
         <v>44228</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D85">
         <v>2.9</v>
@@ -8291,14 +9615,14 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="5">
+      <c r="A86" s="3">
         <v>44256</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D86">
         <v>5.0999999999999996</v>
@@ -8308,14 +9632,14 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="5">
+      <c r="A87" s="3">
         <v>44287</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>5.4</v>
@@ -8325,14 +9649,14 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="5">
+      <c r="A88" s="3">
         <v>44317</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D88">
         <v>7.9</v>
@@ -8342,14 +9666,14 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="5">
+      <c r="A89" s="3">
         <v>44348</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>8.6999999999999993</v>
@@ -8359,14 +9683,14 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="5">
+      <c r="A90" s="3">
         <v>44378</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>7.2</v>
@@ -8376,14 +9700,14 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="5">
+      <c r="A91" s="3">
         <v>44409</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D91">
         <v>5.2</v>
@@ -8398,7 +9722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F517511-9027-47FD-9AE6-C35DB3A48578}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -8413,16 +9737,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -8430,7 +9754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58675EDF-2616-484D-877C-8BC49B79C8AB}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -8451,19 +9775,19 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">

--- a/data/processing/plots.xlsx
+++ b/data/processing/plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zech011\win-repos\Brazil-informality-analysis\data\processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21AE0FB-3BF2-4641-8804-6C66D3E35F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B96F5FD-8B97-48C2-A065-BE2CF447E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="absoluto full" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="157">
   <si>
     <t>month</t>
   </si>
@@ -4375,7 +4375,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6317,7 +6317,7 @@
   <dimension ref="A1:AN115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z94" sqref="Z94:AB115"/>
+      <selection activeCell="A95" sqref="A95:A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17660,8 +17660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A79DE7-B424-4D9E-88B0-0A56824CCCAF}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="F94" sqref="E90:F94"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22058,796 +22058,1101 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2304B32B-8A29-4F53-8B01-14422BFC2721}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B2">
+        <v>32918</v>
+      </c>
+      <c r="C2">
+        <v>4762</v>
+      </c>
+      <c r="D2">
+        <v>3587</v>
+      </c>
+      <c r="E2">
+        <v>1768</v>
+      </c>
+      <c r="F2">
+        <v>11362</v>
+      </c>
+      <c r="G2">
+        <v>11124</v>
+      </c>
+      <c r="H2">
+        <v>18988</v>
+      </c>
+      <c r="I2">
+        <v>848</v>
+      </c>
+      <c r="J2">
+        <v>4340</v>
+      </c>
+      <c r="K2">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B3">
+        <v>33136</v>
+      </c>
+      <c r="C3">
+        <v>4736</v>
+      </c>
+      <c r="D3">
+        <v>3513</v>
+      </c>
+      <c r="E3">
+        <v>1771</v>
+      </c>
+      <c r="F3">
+        <v>11462</v>
+      </c>
+      <c r="G3">
+        <v>11217</v>
+      </c>
+      <c r="H3">
+        <v>19148</v>
+      </c>
+      <c r="I3">
+        <v>868</v>
+      </c>
+      <c r="J3">
+        <v>4376</v>
+      </c>
+      <c r="K3">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B4">
+        <v>33222</v>
+      </c>
+      <c r="C4">
+        <v>4754</v>
+      </c>
+      <c r="D4">
+        <v>3533</v>
+      </c>
+      <c r="E4">
+        <v>1769</v>
+      </c>
+      <c r="F4">
+        <v>11543</v>
+      </c>
+      <c r="G4">
+        <v>11384</v>
+      </c>
+      <c r="H4">
+        <v>19279</v>
+      </c>
+      <c r="I4">
+        <v>889</v>
+      </c>
+      <c r="J4">
+        <v>4414</v>
+      </c>
+      <c r="K4">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B5">
+        <v>33213</v>
+      </c>
+      <c r="C5">
+        <v>4750</v>
+      </c>
+      <c r="D5">
+        <v>3496</v>
+      </c>
+      <c r="E5">
+        <v>1779</v>
+      </c>
+      <c r="F5">
+        <v>11661</v>
+      </c>
+      <c r="G5">
+        <v>11500</v>
+      </c>
+      <c r="H5">
+        <v>19392</v>
+      </c>
+      <c r="I5">
+        <v>873</v>
+      </c>
+      <c r="J5">
+        <v>4476</v>
+      </c>
+      <c r="K5">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B6">
+        <v>33146</v>
+      </c>
+      <c r="C6">
+        <v>4807</v>
+      </c>
+      <c r="D6">
+        <v>3481</v>
+      </c>
+      <c r="E6">
+        <v>1755</v>
+      </c>
+      <c r="F6">
+        <v>11714</v>
+      </c>
+      <c r="G6">
+        <v>11658</v>
+      </c>
+      <c r="H6">
+        <v>19420</v>
+      </c>
+      <c r="I6">
+        <v>850</v>
+      </c>
+      <c r="J6">
+        <v>4525</v>
+      </c>
+      <c r="K6">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B7">
+        <v>33042</v>
+      </c>
+      <c r="C7">
+        <v>4864</v>
+      </c>
+      <c r="D7">
+        <v>3518</v>
+      </c>
+      <c r="E7">
+        <v>1772</v>
+      </c>
+      <c r="F7">
+        <v>11671</v>
+      </c>
+      <c r="G7">
+        <v>11795</v>
+      </c>
+      <c r="H7">
+        <v>19429</v>
+      </c>
+      <c r="I7">
+        <v>830</v>
+      </c>
+      <c r="J7">
+        <v>4515</v>
+      </c>
+      <c r="K7">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B8">
+        <v>33075</v>
+      </c>
+      <c r="C8">
+        <v>4930</v>
+      </c>
+      <c r="D8">
+        <v>3567</v>
+      </c>
+      <c r="E8">
+        <v>1740</v>
+      </c>
+      <c r="F8">
+        <v>11683</v>
+      </c>
+      <c r="G8">
+        <v>11838</v>
+      </c>
+      <c r="H8">
+        <v>19504</v>
+      </c>
+      <c r="I8">
+        <v>801</v>
+      </c>
+      <c r="J8">
+        <v>4536</v>
+      </c>
+      <c r="K8">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B9">
+        <v>33206</v>
+      </c>
+      <c r="C9">
+        <v>4980</v>
+      </c>
+      <c r="D9">
+        <v>3655</v>
+      </c>
+      <c r="E9">
+        <v>1749</v>
+      </c>
+      <c r="F9">
+        <v>11675</v>
+      </c>
+      <c r="G9">
+        <v>11852</v>
+      </c>
+      <c r="H9">
+        <v>19466</v>
+      </c>
+      <c r="I9">
+        <v>798</v>
+      </c>
+      <c r="J9">
+        <v>4565</v>
+      </c>
+      <c r="K9">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B10">
+        <v>33420</v>
+      </c>
+      <c r="C10">
+        <v>5029</v>
+      </c>
+      <c r="D10">
+        <v>3690</v>
+      </c>
+      <c r="E10">
+        <v>1757</v>
+      </c>
+      <c r="F10">
+        <v>11686</v>
+      </c>
+      <c r="G10">
+        <v>11812</v>
+      </c>
+      <c r="H10">
+        <v>19568</v>
+      </c>
+      <c r="I10">
+        <v>793</v>
+      </c>
+      <c r="J10">
+        <v>4598</v>
+      </c>
+      <c r="K10">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B11">
+        <v>33668</v>
+      </c>
+      <c r="C11">
+        <v>5101</v>
+      </c>
+      <c r="D11">
+        <v>3636</v>
+      </c>
+      <c r="E11">
+        <v>1770</v>
+      </c>
+      <c r="F11">
+        <v>11641</v>
+      </c>
+      <c r="G11">
+        <v>11855</v>
+      </c>
+      <c r="H11">
+        <v>19456</v>
+      </c>
+      <c r="I11">
+        <v>806</v>
+      </c>
+      <c r="J11">
+        <v>4585</v>
+      </c>
+      <c r="K11">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B12">
+        <v>33711</v>
+      </c>
+      <c r="C12">
+        <v>5237</v>
+      </c>
+      <c r="D12">
+        <v>3624</v>
+      </c>
+      <c r="E12">
+        <v>1741</v>
+      </c>
+      <c r="F12">
+        <v>11526</v>
+      </c>
+      <c r="G12">
+        <v>11673</v>
+      </c>
+      <c r="H12">
+        <v>19338</v>
+      </c>
+      <c r="I12">
+        <v>802</v>
+      </c>
+      <c r="J12">
+        <v>4519</v>
+      </c>
+      <c r="K12">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B13">
+        <v>33624</v>
+      </c>
+      <c r="C13">
+        <v>5315</v>
+      </c>
+      <c r="D13">
+        <v>3601</v>
+      </c>
+      <c r="E13">
+        <v>1717</v>
+      </c>
+      <c r="F13">
+        <v>11370</v>
+      </c>
+      <c r="G13">
+        <v>11644</v>
+      </c>
+      <c r="H13">
+        <v>19161</v>
+      </c>
+      <c r="I13">
+        <v>810</v>
+      </c>
+      <c r="J13">
+        <v>4492</v>
+      </c>
+      <c r="K13">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>43891</v>
       </c>
-      <c r="B2">
-        <v>44119</v>
-      </c>
-      <c r="C2">
+      <c r="B14">
         <v>33096</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C14">
+        <v>5444</v>
+      </c>
+      <c r="D14">
+        <v>3584</v>
+      </c>
+      <c r="E14">
+        <v>1640</v>
+      </c>
+      <c r="F14">
+        <v>11652</v>
+      </c>
+      <c r="G14" s="1">
         <v>11023</v>
       </c>
-      <c r="E2">
-        <v>5971</v>
-      </c>
-      <c r="F2">
-        <v>1640</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="H14" s="1">
+        <v>18714</v>
+      </c>
+      <c r="I14" s="1">
+        <v>800</v>
+      </c>
+      <c r="J14" s="1">
         <v>4331</v>
       </c>
-      <c r="H2">
-        <v>3584</v>
-      </c>
-      <c r="I2" s="1">
-        <v>800</v>
-      </c>
-      <c r="J2">
-        <v>5444</v>
-      </c>
-      <c r="K2" s="1">
-        <v>18714</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="K14" s="1">
         <v>1938</v>
       </c>
-      <c r="M2">
-        <v>11652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>43922</v>
       </c>
-      <c r="B3">
-        <v>42333</v>
-      </c>
-      <c r="C3">
+      <c r="B15">
         <v>32207</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C15">
+        <v>5520</v>
+      </c>
+      <c r="D15">
+        <v>3445</v>
+      </c>
+      <c r="E15">
+        <v>1573</v>
+      </c>
+      <c r="F15">
+        <v>11904</v>
+      </c>
+      <c r="G15" s="1">
         <v>10126</v>
       </c>
-      <c r="E3">
-        <v>5524</v>
-      </c>
-      <c r="F3">
-        <v>1573</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="H15" s="1">
+        <v>17859</v>
+      </c>
+      <c r="I15" s="1">
+        <v>755</v>
+      </c>
+      <c r="J15" s="1">
         <v>3951</v>
       </c>
-      <c r="H3">
-        <v>3445</v>
-      </c>
-      <c r="I3" s="1">
-        <v>755</v>
-      </c>
-      <c r="J3">
-        <v>5520</v>
-      </c>
-      <c r="K3" s="1">
-        <v>17859</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="K15" s="1">
         <v>1900</v>
       </c>
-      <c r="M3">
-        <v>11904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>43952</v>
       </c>
-      <c r="B4">
-        <v>40321</v>
-      </c>
-      <c r="C4">
+      <c r="B16">
         <v>31103</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C16">
+        <v>5493</v>
+      </c>
+      <c r="D16">
+        <v>3325</v>
+      </c>
+      <c r="E16">
+        <v>1463</v>
+      </c>
+      <c r="F16">
+        <v>12255</v>
+      </c>
+      <c r="G16" s="1">
         <v>9218</v>
       </c>
-      <c r="E4">
-        <v>5033</v>
-      </c>
-      <c r="F4">
-        <v>1463</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="H16" s="1">
+        <v>16922</v>
+      </c>
+      <c r="I16" s="1">
+        <v>709</v>
+      </c>
+      <c r="J16" s="1">
         <v>3569</v>
       </c>
-      <c r="H4">
-        <v>3325</v>
-      </c>
-      <c r="I4" s="1">
-        <v>709</v>
-      </c>
-      <c r="J4">
-        <v>5493</v>
-      </c>
-      <c r="K4" s="1">
-        <v>16922</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="K16" s="1">
         <v>1879</v>
       </c>
-      <c r="M4">
-        <v>12255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>43983</v>
       </c>
-      <c r="B5">
-        <v>38793</v>
-      </c>
-      <c r="C5">
+      <c r="B17">
         <v>30154</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C17">
+        <v>5364</v>
+      </c>
+      <c r="D17">
+        <v>3290</v>
+      </c>
+      <c r="E17">
+        <v>1411</v>
+      </c>
+      <c r="F17">
+        <v>12360</v>
+      </c>
+      <c r="G17" s="1">
         <v>8639</v>
       </c>
-      <c r="E5">
-        <v>4714</v>
-      </c>
-      <c r="F5">
-        <v>1411</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="H17" s="1">
+        <v>16300</v>
+      </c>
+      <c r="I17" s="1">
+        <v>665</v>
+      </c>
+      <c r="J17" s="1">
         <v>3303</v>
       </c>
-      <c r="H5">
-        <v>3290</v>
-      </c>
-      <c r="I5" s="1">
-        <v>665</v>
-      </c>
-      <c r="J5">
-        <v>5364</v>
-      </c>
-      <c r="K5" s="1">
-        <v>16300</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="K17" s="1">
         <v>1861</v>
       </c>
-      <c r="M5">
-        <v>12360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>44013</v>
       </c>
-      <c r="B6">
-        <v>38076</v>
-      </c>
-      <c r="C6">
+      <c r="B18">
         <v>29385</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C18">
+        <v>5192</v>
+      </c>
+      <c r="D18">
+        <v>3266</v>
+      </c>
+      <c r="E18">
+        <v>1372</v>
+      </c>
+      <c r="F18">
+        <v>12119</v>
+      </c>
+      <c r="G18" s="1">
         <v>8691</v>
       </c>
-      <c r="E6">
-        <v>4593</v>
-      </c>
-      <c r="F6">
-        <v>1372</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="H18" s="1">
+        <v>16214</v>
+      </c>
+      <c r="I18" s="1">
+        <v>672</v>
+      </c>
+      <c r="J18" s="1">
         <v>3222</v>
       </c>
-      <c r="H6">
+      <c r="K18" s="1">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B19">
+        <v>29067</v>
+      </c>
+      <c r="C19">
+        <v>5084</v>
+      </c>
+      <c r="D19">
+        <v>3225</v>
+      </c>
+      <c r="E19">
+        <v>1334</v>
+      </c>
+      <c r="F19">
+        <v>11912</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8755</v>
+      </c>
+      <c r="H19" s="1">
+        <v>16437</v>
+      </c>
+      <c r="I19" s="1">
+        <v>679</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3225</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B20">
+        <v>29366</v>
+      </c>
+      <c r="C20">
+        <v>5146</v>
+      </c>
+      <c r="D20">
+        <v>3176</v>
+      </c>
+      <c r="E20">
+        <v>1310</v>
+      </c>
+      <c r="F20">
+        <v>11829</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9013</v>
+      </c>
+      <c r="H20" s="1">
+        <v>16638</v>
+      </c>
+      <c r="I20" s="1">
+        <v>683</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3302</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B21">
+        <v>29769</v>
+      </c>
+      <c r="C21">
+        <v>5324</v>
+      </c>
+      <c r="D21">
+        <v>3217</v>
+      </c>
+      <c r="E21">
+        <v>1285</v>
+      </c>
+      <c r="F21">
+        <v>11992</v>
+      </c>
+      <c r="G21" s="1">
+        <v>9470</v>
+      </c>
+      <c r="H21" s="1">
+        <v>17132</v>
+      </c>
+      <c r="I21" s="1">
+        <v>668</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3422</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B22">
+        <v>29963</v>
+      </c>
+      <c r="C22">
+        <v>5419</v>
+      </c>
+      <c r="D22">
+        <v>3259</v>
+      </c>
+      <c r="E22">
+        <v>1263</v>
+      </c>
+      <c r="F22">
+        <v>12186</v>
+      </c>
+      <c r="G22" s="1">
+        <v>9735</v>
+      </c>
+      <c r="H22" s="1">
+        <v>17517</v>
+      </c>
+      <c r="I22" s="1">
+        <v>661</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3528</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B23">
+        <v>29885</v>
+      </c>
+      <c r="C23">
+        <v>5556</v>
+      </c>
+      <c r="D23">
         <v>3266</v>
       </c>
-      <c r="I6" s="1">
-        <v>672</v>
-      </c>
-      <c r="J6">
-        <v>5192</v>
-      </c>
-      <c r="K6" s="1">
-        <v>16214</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1895</v>
-      </c>
-      <c r="M6">
-        <v>12119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>44044</v>
-      </c>
-      <c r="B7">
-        <v>37822</v>
-      </c>
-      <c r="C7">
-        <v>29067</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8755</v>
-      </c>
-      <c r="E7">
-        <v>4559</v>
-      </c>
-      <c r="F7">
-        <v>1334</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3225</v>
-      </c>
-      <c r="H7">
-        <v>3225</v>
-      </c>
-      <c r="I7" s="1">
-        <v>679</v>
-      </c>
-      <c r="J7">
-        <v>5084</v>
-      </c>
-      <c r="K7" s="1">
-        <v>16437</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1947</v>
-      </c>
-      <c r="M7">
-        <v>11912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B8">
-        <v>38378</v>
-      </c>
-      <c r="C8">
-        <v>29366</v>
-      </c>
-      <c r="D8" s="1">
-        <v>9013</v>
-      </c>
-      <c r="E8">
-        <v>4612</v>
-      </c>
-      <c r="F8">
+      <c r="E23">
+        <v>1281</v>
+      </c>
+      <c r="F23">
+        <v>12162</v>
+      </c>
+      <c r="G23" s="1">
+        <v>9985</v>
+      </c>
+      <c r="H23" s="1">
+        <v>17716</v>
+      </c>
+      <c r="I23" s="1">
+        <v>656</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3621</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B24">
+        <v>29792</v>
+      </c>
+      <c r="C24">
+        <v>5544</v>
+      </c>
+      <c r="D24">
+        <v>3210</v>
+      </c>
+      <c r="E24">
+        <v>1320</v>
+      </c>
+      <c r="F24">
+        <v>12040</v>
+      </c>
+      <c r="G24" s="1">
+        <v>9809</v>
+      </c>
+      <c r="H24" s="1">
+        <v>17959</v>
+      </c>
+      <c r="I24" s="1">
+        <v>667</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3599</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B25">
+        <v>29697</v>
+      </c>
+      <c r="C25">
+        <v>5749</v>
+      </c>
+      <c r="D25">
+        <v>3174</v>
+      </c>
+      <c r="E25">
         <v>1310</v>
       </c>
-      <c r="G8" s="1">
-        <v>3302</v>
-      </c>
-      <c r="H8">
-        <v>3176</v>
-      </c>
-      <c r="I8" s="1">
-        <v>683</v>
-      </c>
-      <c r="J8">
-        <v>5146</v>
-      </c>
-      <c r="K8" s="1">
-        <v>16638</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="F25">
+        <v>11955</v>
+      </c>
+      <c r="G25" s="1">
+        <v>9796</v>
+      </c>
+      <c r="H25" s="1">
+        <v>17904</v>
+      </c>
+      <c r="I25" s="1">
+        <v>685</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3598</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B26">
+        <v>29570</v>
+      </c>
+      <c r="C26">
+        <v>5869</v>
+      </c>
+      <c r="D26">
+        <v>3095</v>
+      </c>
+      <c r="E26">
+        <v>1345</v>
+      </c>
+      <c r="F26">
+        <v>11811</v>
+      </c>
+      <c r="G26" s="1">
+        <v>9691</v>
+      </c>
+      <c r="H26" s="1">
+        <v>17968</v>
+      </c>
+      <c r="I26" s="1">
+        <v>674</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3591</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B27">
+        <v>29605</v>
+      </c>
+      <c r="C27">
+        <v>5847</v>
+      </c>
+      <c r="D27">
+        <v>3093</v>
+      </c>
+      <c r="E27">
+        <v>1349</v>
+      </c>
+      <c r="F27">
+        <v>11824</v>
+      </c>
+      <c r="G27" s="1">
+        <v>9752</v>
+      </c>
+      <c r="H27" s="1">
+        <v>18192</v>
+      </c>
+      <c r="I27" s="1">
+        <v>673</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3603</v>
+      </c>
+      <c r="K27" s="1">
         <v>2002</v>
       </c>
-      <c r="M8">
-        <v>11829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B9">
-        <v>39239</v>
-      </c>
-      <c r="C9">
-        <v>29769</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9470</v>
-      </c>
-      <c r="E9">
-        <v>4707</v>
-      </c>
-      <c r="F9">
-        <v>1285</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3422</v>
-      </c>
-      <c r="H9">
-        <v>3217</v>
-      </c>
-      <c r="I9" s="1">
-        <v>668</v>
-      </c>
-      <c r="J9">
-        <v>5324</v>
-      </c>
-      <c r="K9" s="1">
-        <v>17132</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2022</v>
-      </c>
-      <c r="M9">
-        <v>11992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B10">
-        <v>39697</v>
-      </c>
-      <c r="C10">
-        <v>29963</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9735</v>
-      </c>
-      <c r="E10">
-        <v>4791</v>
-      </c>
-      <c r="F10">
-        <v>1263</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3528</v>
-      </c>
-      <c r="H10">
-        <v>3259</v>
-      </c>
-      <c r="I10" s="1">
-        <v>661</v>
-      </c>
-      <c r="J10">
-        <v>5419</v>
-      </c>
-      <c r="K10" s="1">
-        <v>17517</v>
-      </c>
-      <c r="L10" s="1">
-        <v>2047</v>
-      </c>
-      <c r="M10">
-        <v>12186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>44166</v>
-      </c>
-      <c r="B11">
-        <v>39870</v>
-      </c>
-      <c r="C11">
-        <v>29885</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9985</v>
-      </c>
-      <c r="E11">
-        <v>4902</v>
-      </c>
-      <c r="F11">
-        <v>1281</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3621</v>
-      </c>
-      <c r="H11">
-        <v>3266</v>
-      </c>
-      <c r="I11" s="1">
-        <v>656</v>
-      </c>
-      <c r="J11">
-        <v>5556</v>
-      </c>
-      <c r="K11" s="1">
-        <v>17716</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2051</v>
-      </c>
-      <c r="M11">
-        <v>12162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B12">
-        <v>39601</v>
-      </c>
-      <c r="C12">
-        <v>29792</v>
-      </c>
-      <c r="D12" s="1">
-        <v>9809</v>
-      </c>
-      <c r="E12">
-        <v>4919</v>
-      </c>
-      <c r="F12">
-        <v>1320</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3599</v>
-      </c>
-      <c r="H12">
-        <v>3210</v>
-      </c>
-      <c r="I12" s="1">
-        <v>667</v>
-      </c>
-      <c r="J12">
-        <v>5544</v>
-      </c>
-      <c r="K12" s="1">
-        <v>17959</v>
-      </c>
-      <c r="L12" s="1">
-        <v>2084</v>
-      </c>
-      <c r="M12">
-        <v>12040</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>44228</v>
-      </c>
-      <c r="B13">
-        <v>39493</v>
-      </c>
-      <c r="C13">
-        <v>29697</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9796</v>
-      </c>
-      <c r="E13">
-        <v>4908</v>
-      </c>
-      <c r="F13">
-        <v>1310</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3598</v>
-      </c>
-      <c r="H13">
-        <v>3174</v>
-      </c>
-      <c r="I13" s="1">
-        <v>685</v>
-      </c>
-      <c r="J13">
-        <v>5749</v>
-      </c>
-      <c r="K13" s="1">
-        <v>17904</v>
-      </c>
-      <c r="L13" s="1">
-        <v>2031</v>
-      </c>
-      <c r="M13">
-        <v>11955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>44256</v>
-      </c>
-      <c r="B14">
-        <v>39261</v>
-      </c>
-      <c r="C14">
-        <v>29570</v>
-      </c>
-      <c r="D14" s="1">
-        <v>9691</v>
-      </c>
-      <c r="E14">
-        <v>4936</v>
-      </c>
-      <c r="F14">
-        <v>1345</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3591</v>
-      </c>
-      <c r="H14">
-        <v>3095</v>
-      </c>
-      <c r="I14" s="1">
-        <v>674</v>
-      </c>
-      <c r="J14">
-        <v>5869</v>
-      </c>
-      <c r="K14" s="1">
-        <v>17968</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2036</v>
-      </c>
-      <c r="M14">
-        <v>11811</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>44287</v>
-      </c>
-      <c r="B15">
-        <v>39357</v>
-      </c>
-      <c r="C15">
-        <v>29605</v>
-      </c>
-      <c r="D15" s="1">
-        <v>9752</v>
-      </c>
-      <c r="E15">
-        <v>4952</v>
-      </c>
-      <c r="F15">
-        <v>1349</v>
-      </c>
-      <c r="G15" s="1">
-        <v>3603</v>
-      </c>
-      <c r="H15">
-        <v>3093</v>
-      </c>
-      <c r="I15" s="1">
-        <v>673</v>
-      </c>
-      <c r="J15">
-        <v>5847</v>
-      </c>
-      <c r="K15" s="1">
-        <v>18192</v>
-      </c>
-      <c r="L15" s="1">
-        <v>2002</v>
-      </c>
-      <c r="M15">
-        <v>11824</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>44317</v>
       </c>
-      <c r="B16">
-        <v>39603</v>
-      </c>
-      <c r="C16">
+      <c r="B28">
         <v>29798</v>
       </c>
-      <c r="D16" s="1">
+      <c r="C28">
+        <v>5832</v>
+      </c>
+      <c r="D28">
+        <v>3066</v>
+      </c>
+      <c r="E28">
+        <v>1344</v>
+      </c>
+      <c r="F28">
+        <v>11954</v>
+      </c>
+      <c r="G28" s="1">
         <v>9804</v>
       </c>
-      <c r="E16">
-        <v>5027</v>
-      </c>
-      <c r="F16">
-        <v>1344</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="H28" s="1">
+        <v>18540</v>
+      </c>
+      <c r="I28" s="1">
+        <v>657</v>
+      </c>
+      <c r="J28" s="1">
         <v>3683</v>
       </c>
-      <c r="H16">
-        <v>3066</v>
-      </c>
-      <c r="I16" s="1">
-        <v>657</v>
-      </c>
-      <c r="J16">
-        <v>5832</v>
-      </c>
-      <c r="K16" s="1">
-        <v>18540</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="K28" s="1">
         <v>2028</v>
       </c>
-      <c r="M16">
-        <v>11954</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>44348</v>
       </c>
-      <c r="B17">
-        <v>40212</v>
-      </c>
-      <c r="C17">
+      <c r="B29">
         <v>30189</v>
       </c>
-      <c r="D17" s="1">
+      <c r="C29">
+        <v>5754</v>
+      </c>
+      <c r="D29">
+        <v>3097</v>
+      </c>
+      <c r="E29">
+        <v>1312</v>
+      </c>
+      <c r="F29">
+        <v>11821</v>
+      </c>
+      <c r="G29" s="1">
         <v>10023</v>
       </c>
-      <c r="E17">
-        <v>5108</v>
-      </c>
-      <c r="F17">
-        <v>1312</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="H29" s="1">
+        <v>19085</v>
+      </c>
+      <c r="I29" s="1">
+        <v>691</v>
+      </c>
+      <c r="J29" s="1">
         <v>3796</v>
       </c>
-      <c r="H17">
-        <v>3097</v>
-      </c>
-      <c r="I17" s="1">
-        <v>691</v>
-      </c>
-      <c r="J17">
-        <v>5754</v>
-      </c>
-      <c r="K17" s="1">
-        <v>19085</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="K29" s="1">
         <v>2023</v>
       </c>
-      <c r="M17">
-        <v>11821</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>44378</v>
       </c>
-      <c r="B18">
-        <v>40970</v>
-      </c>
-      <c r="C18">
+      <c r="B30">
         <v>30631</v>
       </c>
-      <c r="D18" s="1">
+      <c r="C30">
+        <v>5985</v>
+      </c>
+      <c r="D30">
+        <v>3025</v>
+      </c>
+      <c r="E30">
+        <v>1315</v>
+      </c>
+      <c r="F30">
+        <v>11790</v>
+      </c>
+      <c r="G30" s="1">
         <v>10339</v>
       </c>
-      <c r="E18">
-        <v>5332</v>
-      </c>
-      <c r="F18">
-        <v>1315</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="H30" s="1">
+        <v>19187</v>
+      </c>
+      <c r="I30" s="1">
+        <v>720</v>
+      </c>
+      <c r="J30" s="1">
         <v>4017</v>
       </c>
-      <c r="H18">
-        <v>3025</v>
-      </c>
-      <c r="I18" s="1">
-        <v>720</v>
-      </c>
-      <c r="J18">
-        <v>5985</v>
-      </c>
-      <c r="K18" s="1">
-        <v>19187</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="K30" s="1">
         <v>2032</v>
       </c>
-      <c r="M18">
-        <v>11790</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>44409</v>
       </c>
-      <c r="B19">
-        <v>41830</v>
-      </c>
-      <c r="C19">
+      <c r="B31">
         <v>31039</v>
       </c>
-      <c r="D19" s="1">
+      <c r="C31">
+        <v>6025</v>
+      </c>
+      <c r="D31">
+        <v>3062</v>
+      </c>
+      <c r="E31">
+        <v>1374</v>
+      </c>
+      <c r="F31">
+        <v>11589</v>
+      </c>
+      <c r="G31" s="1">
         <v>10791</v>
       </c>
-      <c r="E19">
-        <v>5524</v>
-      </c>
-      <c r="F19">
-        <v>1374</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="H31" s="1">
+        <v>19384</v>
+      </c>
+      <c r="I31" s="1">
+        <v>726</v>
+      </c>
+      <c r="J31" s="1">
         <v>4150</v>
       </c>
-      <c r="H19">
-        <v>3062</v>
-      </c>
-      <c r="I19" s="1">
-        <v>726</v>
-      </c>
-      <c r="J19">
-        <v>6025</v>
-      </c>
-      <c r="K19" s="1">
-        <v>19384</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="K31" s="1">
         <v>2048</v>
-      </c>
-      <c r="M19">
-        <v>11589</v>
       </c>
     </row>
   </sheetData>
